--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pelanmar1/Coding/Tesis/aco/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pelanmar1/Coding/Tesis/heuristics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69275462-F630-2B40-97BA-5D63D609C820}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DF1A57-E79C-A74D-9532-8A028B41BAB7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="7" xr2:uid="{9CE432A2-11E2-E747-9E4D-E74C2C8DC2C1}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="8" xr2:uid="{9CE432A2-11E2-E747-9E4D-E74C2C8DC2C1}"/>
   </bookViews>
   <sheets>
     <sheet name="ATT48" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="DANTZIG42" sheetId="7" r:id="rId6"/>
     <sheet name="TESTGOOGLE" sheetId="8" r:id="rId7"/>
     <sheet name="ITAM1" sheetId="9" r:id="rId8"/>
+    <sheet name="FIVE2" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -17193,7 +17194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E499BDB4-FC03-EE42-B9F5-EFAF0D9F70FF}">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -18978,4 +18979,104 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9773F87D-FF78-FC42-9812-2151248CD4DE}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>